--- a/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/ng_oncho_2410_5_hlc_tar.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/ng_oncho_2410_5_hlc_tar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\taraba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F35FAE-6B5C-4019-9BAB-235BBB8B09A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E274696-F7A5-4958-8DD1-03BBFBE5DC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="226">
   <si>
     <t>type</t>
   </si>
@@ -380,9 +380,6 @@
     <t>IBI</t>
   </si>
   <si>
-    <t>JALINGO/K/LAMIDO</t>
-  </si>
-  <si>
     <t>KARIM LAMIDO</t>
   </si>
   <si>
@@ -440,9 +437,6 @@
     <t>FILINGA</t>
   </si>
   <si>
-    <t>GANGWEREN</t>
-  </si>
-  <si>
     <t>JAURO JALLO</t>
   </si>
   <si>
@@ -524,9 +518,6 @@
     <t>LUMBU</t>
   </si>
   <si>
-    <t>A12</t>
-  </si>
-  <si>
     <t>FIYAYI</t>
   </si>
   <si>
@@ -536,9 +527,6 @@
     <t>DANDIKULU</t>
   </si>
   <si>
-    <t>TAR_ARD_N_001</t>
-  </si>
-  <si>
     <t>TAR_ARD_N_002</t>
   </si>
   <si>
@@ -584,9 +572,6 @@
     <t>TAR_GAL_N_016</t>
   </si>
   <si>
-    <t>TAR_GAL_N_017</t>
-  </si>
-  <si>
     <t>TAR_GAL_N_018</t>
   </si>
   <si>
@@ -605,12 +590,6 @@
     <t>TAR_IBI_N_023</t>
   </si>
   <si>
-    <t>TAR_JAL_N_024</t>
-  </si>
-  <si>
-    <t>TAR_JAL_N_025</t>
-  </si>
-  <si>
     <t>TAR_KAL_N_026</t>
   </si>
   <si>
@@ -623,9 +602,6 @@
     <t>TAR_KUR_N_029</t>
   </si>
   <si>
-    <t>TAR_LAU_N_030</t>
-  </si>
-  <si>
     <t>TAR_LAU_N_031</t>
   </si>
   <si>
@@ -644,15 +620,9 @@
     <t>TAR_TAK_N_036</t>
   </si>
   <si>
-    <t>TAR_TAK_N_037</t>
-  </si>
-  <si>
     <t>TAR_TAK_N_038</t>
   </si>
   <si>
-    <t>TAR_TAK_N_039</t>
-  </si>
-  <si>
     <t>TAR_WUK_N_040</t>
   </si>
   <si>
@@ -690,13 +660,64 @@
   </si>
   <si>
     <t>TAR_SAR_M_052</t>
+  </si>
+  <si>
+    <t>MAIHULA</t>
+  </si>
+  <si>
+    <t>GANGUMI</t>
+  </si>
+  <si>
+    <t>SENDIRDE</t>
+  </si>
+  <si>
+    <t>ANGWAN GALADIMA</t>
+  </si>
+  <si>
+    <t>BAMBUKA</t>
+  </si>
+  <si>
+    <t>BENTE SAMA</t>
+  </si>
+  <si>
+    <t>KABRI</t>
+  </si>
+  <si>
+    <t>MAYO-NDAGA</t>
+  </si>
+  <si>
+    <t>KWESATI</t>
+  </si>
+  <si>
+    <t>BANTAJE</t>
+  </si>
+  <si>
+    <t>TAR_GAL_N_001</t>
+  </si>
+  <si>
+    <t>TAR_GAA_N_017</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_024</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_025</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_030</t>
+  </si>
+  <si>
+    <t>TAR_USS_N_037</t>
+  </si>
+  <si>
+    <t>TAR_USS_N_039</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -748,6 +769,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -763,7 +791,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -786,11 +814,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -839,6 +882,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1648,11 +1697,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD146"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1920,7 +1969,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="21" t="s">
+      <c r="A26" t="s">
         <v>101</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -1931,7 +1980,6 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="21"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
@@ -1939,13 +1987,13 @@
       <c r="A28" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1953,13 +2001,13 @@
       <c r="A29" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1967,13 +2015,13 @@
       <c r="A30" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1981,13 +2029,13 @@
       <c r="A31" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1995,13 +2043,13 @@
       <c r="A32" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2009,13 +2057,13 @@
       <c r="A33" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2023,13 +2071,13 @@
       <c r="A34" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2037,13 +2085,13 @@
       <c r="A35" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2051,13 +2099,13 @@
       <c r="A36" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2065,13 +2113,13 @@
       <c r="A37" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2079,13 +2127,13 @@
       <c r="A38" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2093,13 +2141,13 @@
       <c r="A39" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2107,13 +2155,13 @@
       <c r="A40" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2121,142 +2169,143 @@
       <c r="A41" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" t="s">
-        <v>108</v>
-      </c>
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="21"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="21" t="s">
+      <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="21" t="s">
+      <c r="A45" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="21" t="s">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="E46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="21" t="s">
+      <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="21" t="s">
+      <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E48" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="21" t="s">
+      <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="21" t="s">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="21" t="s">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E51" t="s">
         <v>111</v>
@@ -2266,11 +2315,11 @@
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" t="s">
-        <v>131</v>
+      <c r="B52" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="E52" t="s">
         <v>111</v>
@@ -2280,39 +2329,39 @@
       <c r="A53" t="s">
         <v>50</v>
       </c>
-      <c r="B53" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" t="s">
-        <v>132</v>
+      <c r="B53" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="B54" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" t="s">
-        <v>133</v>
+      <c r="B54" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>210</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>50</v>
       </c>
-      <c r="B55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" t="s">
-        <v>134</v>
+      <c r="B55" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="E55" t="s">
         <v>112</v>
@@ -2322,11 +2371,11 @@
       <c r="A56" t="s">
         <v>50</v>
       </c>
-      <c r="B56" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" t="s">
-        <v>135</v>
+      <c r="B56" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="E56" t="s">
         <v>112</v>
@@ -2336,11 +2385,11 @@
       <c r="A57" t="s">
         <v>50</v>
       </c>
-      <c r="B57" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" t="s">
-        <v>136</v>
+      <c r="B57" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="E57" t="s">
         <v>112</v>
@@ -2350,11 +2399,11 @@
       <c r="A58" t="s">
         <v>50</v>
       </c>
-      <c r="B58" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" t="s">
-        <v>137</v>
+      <c r="B58" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="E58" t="s">
         <v>112</v>
@@ -2364,11 +2413,11 @@
       <c r="A59" t="s">
         <v>50</v>
       </c>
-      <c r="B59" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" t="s">
-        <v>138</v>
+      <c r="B59" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="E59" t="s">
         <v>112</v>
@@ -2378,25 +2427,25 @@
       <c r="A60" t="s">
         <v>50</v>
       </c>
-      <c r="B60" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" t="s">
-        <v>139</v>
+      <c r="B60" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>50</v>
       </c>
-      <c r="B61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" t="s">
-        <v>140</v>
+      <c r="B61" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>113</v>
@@ -2406,11 +2455,11 @@
       <c r="A62" t="s">
         <v>50</v>
       </c>
-      <c r="B62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" t="s">
-        <v>141</v>
+      <c r="B62" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="E62" t="s">
         <v>113</v>
@@ -2420,11 +2469,11 @@
       <c r="A63" t="s">
         <v>50</v>
       </c>
-      <c r="B63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" t="s">
-        <v>113</v>
+      <c r="B63" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="E63" t="s">
         <v>113</v>
@@ -2434,11 +2483,11 @@
       <c r="A64" t="s">
         <v>50</v>
       </c>
-      <c r="B64" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" t="s">
-        <v>142</v>
+      <c r="B64" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>212</v>
       </c>
       <c r="E64" t="s">
         <v>114</v>
@@ -2448,11 +2497,11 @@
       <c r="A65" t="s">
         <v>50</v>
       </c>
-      <c r="B65" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" t="s">
-        <v>114</v>
+      <c r="B65" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="E65" t="s">
         <v>114</v>
@@ -2462,11 +2511,11 @@
       <c r="A66" t="s">
         <v>50</v>
       </c>
-      <c r="B66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" t="s">
-        <v>143</v>
+      <c r="B66" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="E66" t="s">
         <v>114</v>
@@ -2476,11 +2525,11 @@
       <c r="A67" t="s">
         <v>50</v>
       </c>
-      <c r="B67" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" t="s">
-        <v>144</v>
+      <c r="B67" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="E67" t="s">
         <v>114</v>
@@ -2490,11 +2539,11 @@
       <c r="A68" t="s">
         <v>50</v>
       </c>
-      <c r="B68" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" t="s">
-        <v>145</v>
+      <c r="B68" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="E68" t="s">
         <v>114</v>
@@ -2504,11 +2553,11 @@
       <c r="A69" t="s">
         <v>50</v>
       </c>
-      <c r="B69" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" t="s">
-        <v>146</v>
+      <c r="B69" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="E69" t="s">
         <v>114</v>
@@ -2518,11 +2567,11 @@
       <c r="A70" t="s">
         <v>50</v>
       </c>
-      <c r="B70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" t="s">
-        <v>147</v>
+      <c r="B70" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="E70" t="s">
         <v>115</v>
@@ -2532,11 +2581,11 @@
       <c r="A71" t="s">
         <v>50</v>
       </c>
-      <c r="B71" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" t="s">
-        <v>148</v>
+      <c r="B71" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="E71" t="s">
         <v>115</v>
@@ -2546,235 +2595,235 @@
       <c r="A72" t="s">
         <v>50</v>
       </c>
-      <c r="B72" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" t="s">
-        <v>149</v>
+      <c r="B72" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="E72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>50</v>
       </c>
-      <c r="B73" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" t="s">
-        <v>150</v>
+      <c r="B73" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="E73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>50</v>
       </c>
-      <c r="B74" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" t="s">
-        <v>116</v>
+      <c r="B74" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>50</v>
       </c>
-      <c r="B75" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" t="s">
-        <v>151</v>
+      <c r="B75" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="E75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>50</v>
       </c>
-      <c r="B76" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" t="s">
-        <v>117</v>
+      <c r="B76" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="E76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>50</v>
       </c>
-      <c r="B77" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" t="s">
-        <v>152</v>
+      <c r="B77" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>214</v>
       </c>
       <c r="E77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>50</v>
       </c>
-      <c r="B78" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" t="s">
-        <v>153</v>
+      <c r="B78" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="E78" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>50</v>
       </c>
-      <c r="B79" t="s">
-        <v>154</v>
-      </c>
-      <c r="C79" t="s">
-        <v>154</v>
+      <c r="B79" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="E79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>50</v>
       </c>
-      <c r="B80" t="s">
-        <v>155</v>
-      </c>
-      <c r="C80" t="s">
-        <v>155</v>
+      <c r="B80" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="E80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>50</v>
       </c>
-      <c r="B81" t="s">
-        <v>156</v>
-      </c>
-      <c r="C81" t="s">
-        <v>156</v>
+      <c r="B81" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="E81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>50</v>
       </c>
-      <c r="B82" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" t="s">
-        <v>157</v>
+      <c r="B82" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="E82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>50</v>
       </c>
-      <c r="B83" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83" t="s">
-        <v>158</v>
+      <c r="B83" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>216</v>
       </c>
       <c r="E83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>50</v>
       </c>
-      <c r="B84" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" t="s">
-        <v>119</v>
+      <c r="B84" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="E84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>50</v>
       </c>
-      <c r="B85" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" t="s">
-        <v>159</v>
+      <c r="B85" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="E85" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>50</v>
       </c>
-      <c r="B86" t="s">
-        <v>160</v>
-      </c>
-      <c r="C86" t="s">
-        <v>160</v>
+      <c r="B86" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="E86" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>50</v>
       </c>
-      <c r="B87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C87" t="s">
-        <v>161</v>
+      <c r="B87" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="E87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>50</v>
       </c>
-      <c r="B88" t="s">
-        <v>162</v>
-      </c>
-      <c r="C88" t="s">
-        <v>162</v>
+      <c r="B88" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="E88" t="s">
         <v>120</v>
@@ -2784,798 +2833,816 @@
       <c r="A89" t="s">
         <v>50</v>
       </c>
-      <c r="B89" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" t="s">
-        <v>163</v>
+      <c r="B89" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="E89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>50</v>
       </c>
-      <c r="B90" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90" t="s">
-        <v>164</v>
+      <c r="B90" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="E90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>50</v>
       </c>
-      <c r="B91" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" t="s">
-        <v>165</v>
+      <c r="B91" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>218</v>
       </c>
       <c r="E91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>50</v>
       </c>
-      <c r="B92" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" t="s">
-        <v>122</v>
+      <c r="B92" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="E92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>50</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C99" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="E93" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>86</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="F99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C100" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="F95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>86</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="F100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B101" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C101" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F96" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>86</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="F101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B102" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C102" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="F97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>86</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="F102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C103" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F98" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="F103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C104" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="F99" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>86</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="F104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B105" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C105" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="F100" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>86</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="F105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C106" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="F101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>86</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="F106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C107" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>86</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="F107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C108" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>86</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="F108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C109" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F104" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
-        <v>86</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="F109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C110" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="F105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
-        <v>86</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="F110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B111" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C111" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="F106" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
-        <v>86</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="F111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C113" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="F107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>86</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="F113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B114" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C114" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="F108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>86</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="F114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B115" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C115" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="F109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>86</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="F115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C116" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="F110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>86</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="F116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C117" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>86</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="F117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C118" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="F112" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
-        <v>86</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="F118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F119" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B121" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C121" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="F113" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" t="s">
-        <v>86</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="F121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B122" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C122" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="F114" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
-        <v>86</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="F122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B123" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C123" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="F115" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
-        <v>86</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="F123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C124" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F116" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" t="s">
-        <v>86</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="F124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C126" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F117" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" t="s">
-        <v>86</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="F126" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C127" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="F118" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
-        <v>86</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="F127" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B128" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C128" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F119" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
-        <v>86</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="F128" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B129" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C129" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F120" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
-        <v>86</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="F129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B130" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C130" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="F121" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" t="s">
-        <v>86</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="F130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B131" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C131" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="F122" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" t="s">
-        <v>86</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="F131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B133" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C133" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="F123" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" t="s">
-        <v>86</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="F133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="F134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B135" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C135" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F124" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" t="s">
-        <v>86</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="F135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B136" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C136" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="F125" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" t="s">
-        <v>86</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="F136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B137" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C137" s="20" t="s">
         <v>198</v>
-      </c>
-      <c r="F126" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" t="s">
-        <v>86</v>
-      </c>
-      <c r="B127" t="s">
-        <v>199</v>
-      </c>
-      <c r="C127" t="s">
-        <v>199</v>
-      </c>
-      <c r="F127" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" t="s">
-        <v>86</v>
-      </c>
-      <c r="B128" t="s">
-        <v>200</v>
-      </c>
-      <c r="C128" t="s">
-        <v>200</v>
-      </c>
-      <c r="F128" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" t="s">
-        <v>86</v>
-      </c>
-      <c r="B129" t="s">
-        <v>201</v>
-      </c>
-      <c r="C129" t="s">
-        <v>201</v>
-      </c>
-      <c r="F129" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" t="s">
-        <v>86</v>
-      </c>
-      <c r="B130" t="s">
-        <v>202</v>
-      </c>
-      <c r="C130" t="s">
-        <v>202</v>
-      </c>
-      <c r="F130" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" t="s">
-        <v>86</v>
-      </c>
-      <c r="B131" t="s">
-        <v>203</v>
-      </c>
-      <c r="C131" t="s">
-        <v>203</v>
-      </c>
-      <c r="F131" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" t="s">
-        <v>86</v>
-      </c>
-      <c r="B132" t="s">
-        <v>204</v>
-      </c>
-      <c r="C132" t="s">
-        <v>204</v>
-      </c>
-      <c r="F132" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" t="s">
-        <v>86</v>
-      </c>
-      <c r="B133" t="s">
-        <v>205</v>
-      </c>
-      <c r="C133" t="s">
-        <v>205</v>
-      </c>
-      <c r="F133" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" t="s">
-        <v>86</v>
-      </c>
-      <c r="B134" t="s">
-        <v>206</v>
-      </c>
-      <c r="C134" t="s">
-        <v>206</v>
-      </c>
-      <c r="F134" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" t="s">
-        <v>86</v>
-      </c>
-      <c r="B135" t="s">
-        <v>207</v>
-      </c>
-      <c r="C135" t="s">
-        <v>207</v>
-      </c>
-      <c r="F135" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" t="s">
-        <v>86</v>
-      </c>
-      <c r="B136" t="s">
-        <v>208</v>
-      </c>
-      <c r="C136" t="s">
-        <v>208</v>
-      </c>
-      <c r="F136" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" t="s">
-        <v>86</v>
-      </c>
-      <c r="B137" t="s">
-        <v>209</v>
-      </c>
-      <c r="C137" t="s">
-        <v>209</v>
       </c>
       <c r="F137" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" t="s">
-        <v>86</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="A138" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F138" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F139" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F140" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="F141" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F142" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B143" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F143" t="s">
         <v>210</v>
       </c>
-      <c r="C138" t="s">
-        <v>210</v>
-      </c>
-      <c r="F138" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" t="s">
-        <v>86</v>
-      </c>
-      <c r="B139" t="s">
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F144" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F145" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F146" t="s">
         <v>211</v>
       </c>
-      <c r="C139" t="s">
-        <v>211</v>
-      </c>
-      <c r="F139" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" t="s">
-        <v>86</v>
-      </c>
-      <c r="B140" t="s">
-        <v>212</v>
-      </c>
-      <c r="C140" t="s">
-        <v>212</v>
-      </c>
-      <c r="F140" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" t="s">
-        <v>86</v>
-      </c>
-      <c r="B141" t="s">
-        <v>213</v>
-      </c>
-      <c r="C141" t="s">
-        <v>213</v>
-      </c>
-      <c r="F141" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" t="s">
-        <v>86</v>
-      </c>
-      <c r="B142" t="s">
-        <v>214</v>
-      </c>
-      <c r="C142" t="s">
-        <v>214</v>
-      </c>
-      <c r="F142" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" t="s">
-        <v>86</v>
-      </c>
-      <c r="B143" t="s">
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F147" t="s">
         <v>215</v>
-      </c>
-      <c r="C143" t="s">
-        <v>215</v>
-      </c>
-      <c r="F143" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" t="s">
-        <v>86</v>
-      </c>
-      <c r="B144" t="s">
-        <v>216</v>
-      </c>
-      <c r="C144" t="s">
-        <v>216</v>
-      </c>
-      <c r="F144" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" t="s">
-        <v>86</v>
-      </c>
-      <c r="B145" t="s">
-        <v>217</v>
-      </c>
-      <c r="C145" t="s">
-        <v>217</v>
-      </c>
-      <c r="F145" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" t="s">
-        <v>86</v>
-      </c>
-      <c r="B146" t="s">
-        <v>218</v>
-      </c>
-      <c r="C146" t="s">
-        <v>218</v>
-      </c>
-      <c r="F146" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/ng_oncho_2410_5_hlc_tar.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/ng_oncho_2410_5_hlc_tar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\taraba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E274696-F7A5-4958-8DD1-03BBFBE5DC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76CF7FB-8CCB-44F1-86CE-AAD02A6E93BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -326,9 +326,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>kj_2</t>
-  </si>
-  <si>
     <t>select_one state</t>
   </si>
   <si>
@@ -353,12 +350,6 @@
     <t>lga</t>
   </si>
   <si>
-    <t>ng_oncho_2410_5_hlc_tar</t>
-  </si>
-  <si>
-    <t>(Taraba) 5. Human Landing Catches</t>
-  </si>
-  <si>
     <t>TARABA</t>
   </si>
   <si>
@@ -711,6 +702,15 @@
   </si>
   <si>
     <t>TAR_USS_N_039</t>
+  </si>
+  <si>
+    <t>ng_oncho_2410_5_hlc_tar_v2</t>
+  </si>
+  <si>
+    <t>(Taraba) 5. Human Landing Catches V2</t>
+  </si>
+  <si>
+    <t>ng_hlc_20242</t>
   </si>
 </sst>
 </file>
@@ -1172,11 +1172,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1">
       <c r="A2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>96</v>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1">
       <c r="A3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>73</v>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1">
@@ -1488,7 +1488,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>35</v>
@@ -1699,7 +1699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD147"/>
     </sheetView>
@@ -1724,10 +1724,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>50</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1985,198 +1985,198 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2190,13 +2190,13 @@
         <v>50</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2204,13 +2204,13 @@
         <v>50</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2218,13 +2218,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2232,13 +2232,13 @@
         <v>50</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2246,13 +2246,13 @@
         <v>50</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2260,13 +2260,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2274,13 +2274,13 @@
         <v>50</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2288,13 +2288,13 @@
         <v>50</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2302,13 +2302,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2316,13 +2316,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2330,13 +2330,13 @@
         <v>50</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2344,13 +2344,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2358,13 +2358,13 @@
         <v>50</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2372,13 +2372,13 @@
         <v>50</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2386,13 +2386,13 @@
         <v>50</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2400,13 +2400,13 @@
         <v>50</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2414,13 +2414,13 @@
         <v>50</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2428,13 +2428,13 @@
         <v>50</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2442,13 +2442,13 @@
         <v>50</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2456,13 +2456,13 @@
         <v>50</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2470,13 +2470,13 @@
         <v>50</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2484,13 +2484,13 @@
         <v>50</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E64" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2498,13 +2498,13 @@
         <v>50</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E65" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2512,13 +2512,13 @@
         <v>50</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2526,13 +2526,13 @@
         <v>50</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E67" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2540,13 +2540,13 @@
         <v>50</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E68" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2554,13 +2554,13 @@
         <v>50</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E69" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2568,13 +2568,13 @@
         <v>50</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E70" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2582,13 +2582,13 @@
         <v>50</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E71" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2596,13 +2596,13 @@
         <v>50</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2610,13 +2610,13 @@
         <v>50</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E73" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2624,13 +2624,13 @@
         <v>50</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E74" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2638,13 +2638,13 @@
         <v>50</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E75" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2652,13 +2652,13 @@
         <v>50</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2666,13 +2666,13 @@
         <v>50</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E77" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2680,13 +2680,13 @@
         <v>50</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E78" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2694,13 +2694,13 @@
         <v>50</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2708,13 +2708,13 @@
         <v>50</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E80" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2722,13 +2722,13 @@
         <v>50</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E81" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2736,13 +2736,13 @@
         <v>50</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E82" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2750,13 +2750,13 @@
         <v>50</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E83" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2764,13 +2764,13 @@
         <v>50</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E84" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2778,13 +2778,13 @@
         <v>50</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2792,13 +2792,13 @@
         <v>50</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E86" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2806,13 +2806,13 @@
         <v>50</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E87" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2820,13 +2820,13 @@
         <v>50</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E88" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2834,13 +2834,13 @@
         <v>50</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E89" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2848,13 +2848,13 @@
         <v>50</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E90" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2862,13 +2862,13 @@
         <v>50</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E91" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2876,13 +2876,13 @@
         <v>50</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E92" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2890,13 +2890,13 @@
         <v>50</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E93" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2904,13 +2904,13 @@
         <v>50</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2922,13 +2922,13 @@
         <v>86</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F96" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2936,13 +2936,13 @@
         <v>86</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F97" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2950,13 +2950,13 @@
         <v>86</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2964,13 +2964,13 @@
         <v>86</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F99" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2978,13 +2978,13 @@
         <v>86</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F100" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2992,13 +2992,13 @@
         <v>86</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F101" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3006,13 +3006,13 @@
         <v>86</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3020,13 +3020,13 @@
         <v>86</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F103" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3034,13 +3034,13 @@
         <v>86</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F104" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3048,13 +3048,13 @@
         <v>86</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F105" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3062,13 +3062,13 @@
         <v>86</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F106" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3076,13 +3076,13 @@
         <v>86</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F107" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3090,13 +3090,13 @@
         <v>86</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F108" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3104,13 +3104,13 @@
         <v>86</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F109" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3118,13 +3118,13 @@
         <v>86</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F110" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3132,13 +3132,13 @@
         <v>86</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F111" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3146,13 +3146,13 @@
         <v>86</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3160,13 +3160,13 @@
         <v>86</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F113" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3174,13 +3174,13 @@
         <v>86</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F114" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3188,13 +3188,13 @@
         <v>86</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F115" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3202,13 +3202,13 @@
         <v>86</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F116" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3216,13 +3216,13 @@
         <v>86</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F117" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3230,13 +3230,13 @@
         <v>86</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F118" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3244,13 +3244,13 @@
         <v>86</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F119" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3258,13 +3258,13 @@
         <v>86</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F120" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3272,13 +3272,13 @@
         <v>86</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F121" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3286,13 +3286,13 @@
         <v>86</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3300,13 +3300,13 @@
         <v>86</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F123" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3314,13 +3314,13 @@
         <v>86</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F124" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3328,13 +3328,13 @@
         <v>86</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F125" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3342,13 +3342,13 @@
         <v>86</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F126" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3356,13 +3356,13 @@
         <v>86</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F127" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3370,13 +3370,13 @@
         <v>86</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F128" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3384,13 +3384,13 @@
         <v>86</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F129" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3398,13 +3398,13 @@
         <v>86</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F130" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3412,13 +3412,13 @@
         <v>86</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F131" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3426,13 +3426,13 @@
         <v>86</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F132" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3440,13 +3440,13 @@
         <v>86</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F133" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3454,13 +3454,13 @@
         <v>86</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F134" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3468,13 +3468,13 @@
         <v>86</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F135" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3482,13 +3482,13 @@
         <v>86</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F136" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3496,13 +3496,13 @@
         <v>86</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F137" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3510,13 +3510,13 @@
         <v>86</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F138" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3524,13 +3524,13 @@
         <v>86</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F139" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3538,13 +3538,13 @@
         <v>86</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F140" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3552,13 +3552,13 @@
         <v>86</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F141" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3566,13 +3566,13 @@
         <v>86</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F142" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3580,13 +3580,13 @@
         <v>86</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F143" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3594,13 +3594,13 @@
         <v>86</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F144" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3608,13 +3608,13 @@
         <v>86</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F145" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3622,13 +3622,13 @@
         <v>86</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F146" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3636,13 +3636,13 @@
         <v>86</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F147" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3656,7 +3656,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3678,10 +3678,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
